--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/2_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2.229</v>
+        <v>-3.078</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.614</v>
+        <v>-2.255</v>
       </c>
       <c r="D4" t="n">
-        <v>-72.45</v>
+        <v>-26.74</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.029</v>
+        <v>-0.022</v>
       </c>
       <c r="D5" t="n">
-        <v>-390</v>
+        <v>144.44</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.641999999999999</v>
+        <v>10.912</v>
       </c>
       <c r="C6" t="n">
-        <v>4.319</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>-50.02</v>
+        <v>-20.18</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.605</v>
+        <v>0.777</v>
       </c>
       <c r="C7" t="n">
-        <v>0.275</v>
+        <v>0.609</v>
       </c>
       <c r="D7" t="n">
-        <v>-54.55</v>
+        <v>-21.62</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.441</v>
+        <v>21.482</v>
       </c>
       <c r="C8" t="n">
-        <v>14.481</v>
+        <v>19.54</v>
       </c>
       <c r="D8" t="n">
-        <v>-25.51</v>
+        <v>-9.039999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.164999999999999</v>
+        <v>10.505</v>
       </c>
       <c r="C9" t="n">
-        <v>3.996</v>
+        <v>8.048</v>
       </c>
       <c r="D9" t="n">
-        <v>-51.06</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.621</v>
+        <v>131.011</v>
       </c>
       <c r="C10" t="n">
-        <v>30.087</v>
+        <v>87.946</v>
       </c>
       <c r="D10" t="n">
-        <v>-65.27</v>
+        <v>-32.87</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.776</v>
+        <v>1.758</v>
       </c>
       <c r="C11" t="n">
-        <v>0.148</v>
+        <v>0.794</v>
       </c>
       <c r="D11" t="n">
-        <v>-80.93000000000001</v>
+        <v>-54.84</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-6.327</v>
+        <v>-10.082</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.545</v>
+        <v>-6.439</v>
       </c>
       <c r="D12" t="n">
-        <v>-75.58</v>
+        <v>-36.13</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.307</v>
+        <v>11.446</v>
       </c>
       <c r="C13" t="n">
-        <v>5.485</v>
+        <v>9.378</v>
       </c>
       <c r="D13" t="n">
-        <v>-41.07</v>
+        <v>-18.07</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.812951621555147</v>
+        <v>2.650880769604728</v>
       </c>
       <c r="C4" t="n">
-        <v>4.268254484449114</v>
+        <v>4.208092950639271</v>
       </c>
       <c r="D4" t="n">
-        <v>51.74</v>
+        <v>58.74</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5979646032926693</v>
+        <v>0.4595313991631091</v>
       </c>
       <c r="F4" t="n">
-        <v>1.969086172452562</v>
+        <v>1.696408631034857</v>
       </c>
       <c r="G4" t="n">
-        <v>229.3</v>
+        <v>269.16</v>
       </c>
     </row>
     <row r="5">
@@ -770,13 +770,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.076</v>
+        <v>0.393</v>
       </c>
       <c r="C5" t="n">
-        <v>0.755</v>
+        <v>0.326</v>
       </c>
       <c r="D5" t="n">
-        <v>-29.83</v>
+        <v>-17.05</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.605715081178762</v>
+        <v>3.783024241194538</v>
       </c>
       <c r="C6" t="n">
-        <v>2.428686604901281</v>
+        <v>2.910478552151447</v>
       </c>
       <c r="D6" t="n">
-        <v>-32.64</v>
+        <v>-23.06</v>
       </c>
       <c r="E6" t="n">
-        <v>1.426677776776909</v>
+        <v>0.6138659499111091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3492853922312497</v>
+        <v>0.3733767621291242</v>
       </c>
       <c r="G6" t="n">
-        <v>-75.52</v>
+        <v>-39.18</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/2_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/pruning_quant-dynamic_low-rank_quant-static/2_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
